--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance\OneDrive\Desktop\Reseller\reseller-cli\Resis\simp-discord-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240240C7-E02E-41E9-8C70-B716ABF514AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B3B05-F2E9-48C9-A216-80493654DEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C7E970F-2BC1-427C-88EB-4DB4967F6E8A}"/>
+    <workbookView xWindow="1215" yWindow="1665" windowWidth="15375" windowHeight="7875" xr2:uid="{4C7E970F-2BC1-427C-88EB-4DB4967F6E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>60889e79dbe07f0017dda10c</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>nwwMSzMP8p:6LGDYTKMD6</t>
+  </si>
+  <si>
+    <t>608ca4d14b24ea0017746d92</t>
+  </si>
+  <si>
+    <t>dcUqZB3sI6:O3rGU1LzAL</t>
+  </si>
+  <si>
+    <t>608caed04b24ea0017746d94</t>
+  </si>
+  <si>
+    <t>bbp4rJtDVq:o4DgyrSUfZ</t>
   </si>
 </sst>
 </file>
@@ -556,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D432656D-AA22-4615-B0B9-7585B090F298}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +677,9 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -989,9 +1004,31 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
       <c r="D31">
-        <f>SUM(D1:D30)</f>
-        <v>42</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
